--- a/_Excel/ND/Atsiskaitymas_4in2.xlsx
+++ b/_Excel/ND/Atsiskaitymas_4in2.xlsx
@@ -5,19 +5,24 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kachialov-my.sharepoint.com/personal/andrej_gorbatniov_kachialov_lt/Documents/_2024-2025/Atsiskaitymai/_Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andrej\Projects\Mokykla\inf12\inf12\_Excel\ND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{C7E6087B-C8AF-4EEF-991F-6776259DCCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9433C001-8446-4D9B-9B70-92CE4DEA2301}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093F92CB-0641-42A2-9FEB-8FE750F166A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="16395" windowHeight="9601" activeTab="3" xr2:uid="{C840539D-85A3-49F7-9C6F-CF5F5F43D909}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="16395" windowHeight="9601" xr2:uid="{C840539D-85A3-49F7-9C6F-CF5F5F43D909}"/>
   </bookViews>
   <sheets>
     <sheet name="IFS" sheetId="1" r:id="rId1"/>
     <sheet name="COUNTIFS" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="AVERAGEIF" sheetId="6" r:id="rId3"/>
     <sheet name="AVERAGEIFS" sheetId="4" r:id="rId4"/>
+    <sheet name="MINIFS_MAXIFS" sheetId="5" r:id="rId5"/>
+    <sheet name="FIND" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">MINIFS_MAXIFS!$A$1:$E$121</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,8 +43,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={99431A09-1B54-4762-B3C5-B7A7916D734E}</author>
+    <author>tc={00AE8402-0704-4D8C-9856-6223C1472F74}</author>
+  </authors>
+  <commentList>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{99431A09-1B54-4762-B3C5-B7A7916D734E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Naudokite reikšmę iš langelio H5</t>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="1" shapeId="0" xr:uid="{00AE8402-0704-4D8C-9856-6223C1472F74}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Įrašykite datos reikšmę tiesiai į formulę</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Dienos skaičius</t>
   </si>
@@ -295,6 +327,9 @@
     </r>
   </si>
   <si>
+    <t>Tikyba (praktika)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -314,7 +349,240 @@
         <family val="1"/>
         <charset val="186"/>
       </rPr>
-      <t xml:space="preserve"> ir </t>
+      <t xml:space="preserve"> dienos mažiausia megavatvalandės kaina valandų intervale </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[4;8]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Antros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="186"/>
+      </rPr>
+      <t xml:space="preserve"> dienos didžiausia megavatvalandės kaina valandų intervale </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[4;8]</t>
+    </r>
+  </si>
+  <si>
+    <t>Nuosavybės vertė</t>
+  </si>
+  <si>
+    <t>Komisiniai</t>
+  </si>
+  <si>
+    <t>Visų komisinių, mažesnių nei 20 000, vidurkis.</t>
+  </si>
+  <si>
+    <t>Visų nuosavybės verčių, mažesnių nei 350 000, vidurkis.</t>
+  </si>
+  <si>
+    <t>Komisinių, kai nuosavybės vertė mažesnė už 400 000, vidurkis.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Darbo dienomis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="186"/>
+      </rPr>
+      <t>vidutinė megavatvalandės kaina tarp [8; 17] valandų</t>
+    </r>
+  </si>
+  <si>
+    <t>Nuosavybės verčių, kai komisiniai didesni už 10 000, vidurkis</t>
+  </si>
+  <si>
+    <t>Atsakymas</t>
+  </si>
+  <si>
+    <t>Duomenys</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Apskaičiuoja, kiek skaičių nuo 2 iki 5 (neįtraukiant 2 ir 5) yra langeliuose nuo G2 iki G7.</t>
+  </si>
+  <si>
+    <t>Apskaičiuoja, keliose eilutėse langeliuose nuo G2 iki G7 yra skaičiai, mažesni nei 6, bei keliose eilutėse langeliuose nuo H2 iki H7 yra datos, ankstesnės nei 2011-05-04.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Nuo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">trečios </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">iki </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>penktos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="186"/>
+      </rPr>
+      <t xml:space="preserve"> dienos mažiausia megavatvalandės kaina valandų intervale</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> [20;0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Nuo trečios iki penktos dienos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="186"/>
+      </rPr>
+      <t xml:space="preserve"> didžiausia megavatvalandės kaina valandų intervale</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> [20;0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Nuo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> antros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="186"/>
+      </rPr>
+      <t xml:space="preserve"> iki </t>
     </r>
     <r>
       <rPr>
@@ -335,18 +603,39 @@
         <family val="1"/>
         <charset val="186"/>
       </rPr>
-      <t xml:space="preserve"> dienų vidutinė megavatvalandės kaina</t>
+      <t xml:space="preserve"> dienos vidutinė megavatvalandės kaina</t>
     </r>
   </si>
   <si>
-    <t>Vidutinė megavatvalandės kaina tarp [8; 17] valandų</t>
+    <t>Vardas, pavardė</t>
+  </si>
+  <si>
+    <t>Aš mėgstu informatika</t>
+  </si>
+  <si>
+    <t>Rasti "Aš"</t>
+  </si>
+  <si>
+    <t>Rasti antrąją "m"</t>
+  </si>
+  <si>
+    <t>Rasti  "info"</t>
+  </si>
+  <si>
+    <t>Bet kartais Aš gaunu per mažai informacijos</t>
+  </si>
+  <si>
+    <t>Atsakymai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,8 +726,51 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF363636"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="186"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,8 +795,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -522,12 +872,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -559,10 +925,63 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{17927C81-5634-4CA1-A849-E3FFB335CBD2}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{FBE20CF0-7E4A-4F3F-BF2F-9D9CFA1B93C0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -575,6 +994,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Andrej Gorbatniov" id="{3809C699-4F0E-44C9-A72F-B7C346E741DA}" userId="S::andrej.gorbatniov@kachialov.lt::8f5d991c-361b-4d31-9f6c-acf89dc1acdf" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -892,19 +1317,30 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G9" dT="2024-11-27T08:24:31.06" personId="{3809C699-4F0E-44C9-A72F-B7C346E741DA}" id="{99431A09-1B54-4762-B3C5-B7A7916D734E}">
+    <text>Naudokite reikšmę iš langelio H5</text>
+  </threadedComment>
+  <threadedComment ref="G10" dT="2024-11-27T08:25:36.60" personId="{3809C699-4F0E-44C9-A72F-B7C346E741DA}" id="{00AE8402-0704-4D8C-9856-6223C1472F74}">
+    <text>Įrašykite datos reikšmę tiesiai į formulę</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E14515-B093-4EC8-8AD1-D25B48D4A16C}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1054,7 +1490,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1068,11 +1504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADA0323-CEDB-409A-BD10-32E3DCE7F05B}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADA0323-CEDB-409A-BD10-32E3DCE7F05B}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1080,9 +1516,13 @@
     <col min="1" max="1" width="21.3984375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" customWidth="1"/>
+    <col min="7" max="7" width="20.265625" customWidth="1"/>
+    <col min="8" max="8" width="21.86328125" customWidth="1"/>
+    <col min="9" max="9" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="45.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1095,8 +1535,20 @@
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1109,8 +1561,14 @@
       <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="34">
+        <v>40664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1123,8 +1581,14 @@
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="34">
+        <v>40665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1137,8 +1601,14 @@
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="34">
+        <v>40666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1151,44 +1621,162 @@
       <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="92.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+      <c r="H5" s="34">
+        <v>40667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" s="36">
+        <v>40668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G7" s="4">
+        <v>6</v>
+      </c>
+      <c r="H7" s="34">
+        <v>40669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="76.900000000000006" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="76.900000000000006" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
+      <c r="E8" s="35"/>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="138.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="35"/>
+      <c r="G9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="136.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="35"/>
+      <c r="G10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="35">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58279C76-05F9-40AD-A7A2-289C42AF2BF7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C40388A-B3AC-4855-B1A1-C97407C3F653}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.46484375" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" customWidth="1"/>
+    <col min="3" max="3" width="25.19921875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="15.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="26">
+        <v>100000</v>
+      </c>
+      <c r="B2" s="26">
+        <v>7000</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" ht="48.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="26">
+        <v>200000</v>
+      </c>
+      <c r="B3" s="26">
+        <v>14000</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:4" ht="63.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="26">
+        <v>300000</v>
+      </c>
+      <c r="B4" s="26">
+        <v>21000</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" ht="46.15" x14ac:dyDescent="0.45">
+      <c r="A5" s="26">
+        <v>400000</v>
+      </c>
+      <c r="B5" s="26">
+        <v>28000</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="32"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1197,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FB69B1-D48F-4A28-84D5-B531D7A600DB}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1242,6 +1830,7 @@
       <c r="D2" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="14">
@@ -1254,8 +1843,9 @@
         <v>134.85</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>33</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="14">
@@ -1267,9 +1857,10 @@
       <c r="C4" s="14">
         <v>132.53</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="D4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="14">
@@ -2564,4 +3155,1459 @@
   <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F0FF3-138A-460D-955B-8D3F5BBC7E8A}">
+  <dimension ref="A1:E121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9.53125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="19" style="21" customWidth="1"/>
+    <col min="4" max="4" width="80" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="22" customWidth="1"/>
+    <col min="6" max="111" width="9.1328125" style="21" customWidth="1"/>
+    <col min="112" max="16384" width="8.86328125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>95.75</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>134.85</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21">
+        <v>132.53</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21">
+        <v>84.69</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="21">
+        <v>1</v>
+      </c>
+      <c r="B7" s="21">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21">
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="21">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21">
+        <v>84.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="21">
+        <v>7</v>
+      </c>
+      <c r="C9" s="21">
+        <v>111.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="21">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21">
+        <v>8</v>
+      </c>
+      <c r="C10" s="21">
+        <v>111.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="21">
+        <v>1</v>
+      </c>
+      <c r="B11" s="21">
+        <v>9</v>
+      </c>
+      <c r="C11" s="21">
+        <v>99.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="21">
+        <v>1</v>
+      </c>
+      <c r="B12" s="21">
+        <v>10</v>
+      </c>
+      <c r="C12" s="21">
+        <v>64.510000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="21">
+        <v>11</v>
+      </c>
+      <c r="C13" s="21">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="21">
+        <v>1</v>
+      </c>
+      <c r="B14" s="21">
+        <v>12</v>
+      </c>
+      <c r="C14" s="21">
+        <v>24.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="21">
+        <v>1</v>
+      </c>
+      <c r="B15" s="21">
+        <v>13</v>
+      </c>
+      <c r="C15" s="21">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="21">
+        <v>1</v>
+      </c>
+      <c r="B16" s="21">
+        <v>14</v>
+      </c>
+      <c r="C16" s="21">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="21">
+        <v>1</v>
+      </c>
+      <c r="B17" s="21">
+        <v>15</v>
+      </c>
+      <c r="C17" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="21">
+        <v>1</v>
+      </c>
+      <c r="B18" s="21">
+        <v>16</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="21">
+        <v>1</v>
+      </c>
+      <c r="B19" s="21">
+        <v>17</v>
+      </c>
+      <c r="C19" s="21">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="21">
+        <v>1</v>
+      </c>
+      <c r="B20" s="21">
+        <v>18</v>
+      </c>
+      <c r="C20" s="21">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="21">
+        <v>67.88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="21">
+        <v>1</v>
+      </c>
+      <c r="B22" s="21">
+        <v>20</v>
+      </c>
+      <c r="C22" s="21">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="21">
+        <v>1</v>
+      </c>
+      <c r="B23" s="21">
+        <v>21</v>
+      </c>
+      <c r="C23" s="21">
+        <v>147.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="21">
+        <v>1</v>
+      </c>
+      <c r="B24" s="21">
+        <v>22</v>
+      </c>
+      <c r="C24" s="21">
+        <v>122.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="21">
+        <v>1</v>
+      </c>
+      <c r="B25" s="21">
+        <v>23</v>
+      </c>
+      <c r="C25" s="21">
+        <v>55.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="21">
+        <v>2</v>
+      </c>
+      <c r="B26" s="21">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21">
+        <v>45.34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="21">
+        <v>2</v>
+      </c>
+      <c r="B27" s="21">
+        <v>1</v>
+      </c>
+      <c r="C27" s="21">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="21">
+        <v>2</v>
+      </c>
+      <c r="B28" s="21">
+        <v>2</v>
+      </c>
+      <c r="C28" s="21">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="21">
+        <v>2</v>
+      </c>
+      <c r="B29" s="21">
+        <v>3</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="21">
+        <v>2</v>
+      </c>
+      <c r="B30" s="21">
+        <v>4</v>
+      </c>
+      <c r="C30" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="21">
+        <v>2</v>
+      </c>
+      <c r="B31" s="21">
+        <v>5</v>
+      </c>
+      <c r="C31" s="21">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="21">
+        <v>2</v>
+      </c>
+      <c r="B32" s="21">
+        <v>6</v>
+      </c>
+      <c r="C32" s="21">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="21">
+        <v>2</v>
+      </c>
+      <c r="B33" s="21">
+        <v>7</v>
+      </c>
+      <c r="C33" s="21">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="21">
+        <v>2</v>
+      </c>
+      <c r="B34" s="21">
+        <v>8</v>
+      </c>
+      <c r="C34" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="21">
+        <v>2</v>
+      </c>
+      <c r="B35" s="21">
+        <v>9</v>
+      </c>
+      <c r="C35" s="21">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="21">
+        <v>2</v>
+      </c>
+      <c r="B36" s="21">
+        <v>10</v>
+      </c>
+      <c r="C36" s="21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="21">
+        <v>2</v>
+      </c>
+      <c r="B37" s="21">
+        <v>11</v>
+      </c>
+      <c r="C37" s="21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="21">
+        <v>2</v>
+      </c>
+      <c r="B38" s="21">
+        <v>12</v>
+      </c>
+      <c r="C38" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="21">
+        <v>2</v>
+      </c>
+      <c r="B39" s="21">
+        <v>13</v>
+      </c>
+      <c r="C39" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="21">
+        <v>2</v>
+      </c>
+      <c r="B40" s="21">
+        <v>14</v>
+      </c>
+      <c r="C40" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="21">
+        <v>2</v>
+      </c>
+      <c r="B41" s="21">
+        <v>15</v>
+      </c>
+      <c r="C41" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="21">
+        <v>2</v>
+      </c>
+      <c r="B42" s="21">
+        <v>16</v>
+      </c>
+      <c r="C42" s="21">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="21">
+        <v>2</v>
+      </c>
+      <c r="B43" s="21">
+        <v>17</v>
+      </c>
+      <c r="C43" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="21">
+        <v>2</v>
+      </c>
+      <c r="B44" s="21">
+        <v>18</v>
+      </c>
+      <c r="C44" s="21">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="21">
+        <v>2</v>
+      </c>
+      <c r="B45" s="21">
+        <v>19</v>
+      </c>
+      <c r="C45" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="21">
+        <v>2</v>
+      </c>
+      <c r="B46" s="21">
+        <v>20</v>
+      </c>
+      <c r="C46" s="21">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="21">
+        <v>2</v>
+      </c>
+      <c r="B47" s="21">
+        <v>21</v>
+      </c>
+      <c r="C47" s="21">
+        <v>28.47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="21">
+        <v>2</v>
+      </c>
+      <c r="B48" s="21">
+        <v>22</v>
+      </c>
+      <c r="C48" s="21">
+        <v>28.28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="21">
+        <v>2</v>
+      </c>
+      <c r="B49" s="21">
+        <v>23</v>
+      </c>
+      <c r="C49" s="21">
+        <v>21.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="21">
+        <v>3</v>
+      </c>
+      <c r="B50" s="21">
+        <v>0</v>
+      </c>
+      <c r="C50" s="21">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="21">
+        <v>3</v>
+      </c>
+      <c r="B51" s="21">
+        <v>1</v>
+      </c>
+      <c r="C51" s="21">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="21">
+        <v>3</v>
+      </c>
+      <c r="B52" s="21">
+        <v>2</v>
+      </c>
+      <c r="C52" s="21">
+        <v>19.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="21">
+        <v>3</v>
+      </c>
+      <c r="B53" s="21">
+        <v>3</v>
+      </c>
+      <c r="C53" s="21">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="21">
+        <v>3</v>
+      </c>
+      <c r="B54" s="21">
+        <v>4</v>
+      </c>
+      <c r="C54" s="21">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="21">
+        <v>3</v>
+      </c>
+      <c r="B55" s="21">
+        <v>5</v>
+      </c>
+      <c r="C55" s="21">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="21">
+        <v>3</v>
+      </c>
+      <c r="B56" s="21">
+        <v>6</v>
+      </c>
+      <c r="C56" s="21">
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="21">
+        <v>3</v>
+      </c>
+      <c r="B57" s="21">
+        <v>7</v>
+      </c>
+      <c r="C57" s="21">
+        <v>39.94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="21">
+        <v>3</v>
+      </c>
+      <c r="B58" s="21">
+        <v>8</v>
+      </c>
+      <c r="C58" s="21">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="21">
+        <v>3</v>
+      </c>
+      <c r="B59" s="21">
+        <v>9</v>
+      </c>
+      <c r="C59" s="21">
+        <v>57.66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="21">
+        <v>3</v>
+      </c>
+      <c r="B60" s="21">
+        <v>10</v>
+      </c>
+      <c r="C60" s="21">
+        <v>41.66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="21">
+        <v>3</v>
+      </c>
+      <c r="B61" s="21">
+        <v>11</v>
+      </c>
+      <c r="C61" s="21">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="21">
+        <v>3</v>
+      </c>
+      <c r="B62" s="21">
+        <v>12</v>
+      </c>
+      <c r="C62" s="21">
+        <v>17.350000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="21">
+        <v>3</v>
+      </c>
+      <c r="B63" s="21">
+        <v>13</v>
+      </c>
+      <c r="C63" s="21">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="21">
+        <v>3</v>
+      </c>
+      <c r="B64" s="21">
+        <v>14</v>
+      </c>
+      <c r="C64" s="21">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="21">
+        <v>3</v>
+      </c>
+      <c r="B65" s="21">
+        <v>15</v>
+      </c>
+      <c r="C65" s="21">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="21">
+        <v>3</v>
+      </c>
+      <c r="B66" s="21">
+        <v>16</v>
+      </c>
+      <c r="C66" s="21">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="21">
+        <v>3</v>
+      </c>
+      <c r="B67" s="21">
+        <v>17</v>
+      </c>
+      <c r="C67" s="21">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="21">
+        <v>3</v>
+      </c>
+      <c r="B68" s="21">
+        <v>18</v>
+      </c>
+      <c r="C68" s="21">
+        <v>21.96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="21">
+        <v>3</v>
+      </c>
+      <c r="B69" s="21">
+        <v>19</v>
+      </c>
+      <c r="C69" s="21">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="21">
+        <v>3</v>
+      </c>
+      <c r="B70" s="21">
+        <v>20</v>
+      </c>
+      <c r="C70" s="21">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="21">
+        <v>3</v>
+      </c>
+      <c r="B71" s="21">
+        <v>21</v>
+      </c>
+      <c r="C71" s="21">
+        <v>53.88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="21">
+        <v>3</v>
+      </c>
+      <c r="B72" s="21">
+        <v>22</v>
+      </c>
+      <c r="C72" s="21">
+        <v>51.17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="21">
+        <v>3</v>
+      </c>
+      <c r="B73" s="21">
+        <v>23</v>
+      </c>
+      <c r="C73" s="21">
+        <v>45.37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="21">
+        <v>4</v>
+      </c>
+      <c r="B74" s="21">
+        <v>0</v>
+      </c>
+      <c r="C74" s="21">
+        <v>36.950000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="21">
+        <v>4</v>
+      </c>
+      <c r="B75" s="21">
+        <v>1</v>
+      </c>
+      <c r="C75" s="21">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="21">
+        <v>4</v>
+      </c>
+      <c r="B76" s="21">
+        <v>2</v>
+      </c>
+      <c r="C76" s="21">
+        <v>21.53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="21">
+        <v>4</v>
+      </c>
+      <c r="B77" s="21">
+        <v>3</v>
+      </c>
+      <c r="C77" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="21">
+        <v>4</v>
+      </c>
+      <c r="B78" s="21">
+        <v>4</v>
+      </c>
+      <c r="C78" s="21">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="21">
+        <v>4</v>
+      </c>
+      <c r="B79" s="21">
+        <v>5</v>
+      </c>
+      <c r="C79" s="21">
+        <v>21.67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="21">
+        <v>4</v>
+      </c>
+      <c r="B80" s="21">
+        <v>6</v>
+      </c>
+      <c r="C80" s="21">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="21">
+        <v>4</v>
+      </c>
+      <c r="B81" s="21">
+        <v>7</v>
+      </c>
+      <c r="C81" s="21">
+        <v>116.09</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="21">
+        <v>4</v>
+      </c>
+      <c r="B82" s="21">
+        <v>8</v>
+      </c>
+      <c r="C82" s="21">
+        <v>119.97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="21">
+        <v>4</v>
+      </c>
+      <c r="B83" s="21">
+        <v>9</v>
+      </c>
+      <c r="C83" s="21">
+        <v>95.05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="21">
+        <v>4</v>
+      </c>
+      <c r="B84" s="21">
+        <v>10</v>
+      </c>
+      <c r="C84" s="21">
+        <v>73.88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="21">
+        <v>4</v>
+      </c>
+      <c r="B85" s="21">
+        <v>11</v>
+      </c>
+      <c r="C85" s="21">
+        <v>37.15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="21">
+        <v>4</v>
+      </c>
+      <c r="B86" s="21">
+        <v>12</v>
+      </c>
+      <c r="C86" s="21">
+        <v>23.57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="21">
+        <v>4</v>
+      </c>
+      <c r="B87" s="21">
+        <v>13</v>
+      </c>
+      <c r="C87" s="21">
+        <v>24.19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="21">
+        <v>4</v>
+      </c>
+      <c r="B88" s="21">
+        <v>14</v>
+      </c>
+      <c r="C88" s="21">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="21">
+        <v>4</v>
+      </c>
+      <c r="B89" s="21">
+        <v>15</v>
+      </c>
+      <c r="C89" s="21">
+        <v>60.86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="21">
+        <v>4</v>
+      </c>
+      <c r="B90" s="21">
+        <v>16</v>
+      </c>
+      <c r="C90" s="21">
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="21">
+        <v>4</v>
+      </c>
+      <c r="B91" s="21">
+        <v>17</v>
+      </c>
+      <c r="C91" s="21">
+        <v>67.53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="21">
+        <v>4</v>
+      </c>
+      <c r="B92" s="21">
+        <v>18</v>
+      </c>
+      <c r="C92" s="21">
+        <v>93.68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="21">
+        <v>4</v>
+      </c>
+      <c r="B93" s="21">
+        <v>19</v>
+      </c>
+      <c r="C93" s="21">
+        <v>124.16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="21">
+        <v>4</v>
+      </c>
+      <c r="B94" s="21">
+        <v>20</v>
+      </c>
+      <c r="C94" s="21">
+        <v>166.41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="21">
+        <v>4</v>
+      </c>
+      <c r="B95" s="21">
+        <v>21</v>
+      </c>
+      <c r="C95" s="21">
+        <v>183.55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="21">
+        <v>4</v>
+      </c>
+      <c r="B96" s="21">
+        <v>22</v>
+      </c>
+      <c r="C96" s="21">
+        <v>151.49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="21">
+        <v>4</v>
+      </c>
+      <c r="B97" s="21">
+        <v>23</v>
+      </c>
+      <c r="C97" s="21">
+        <v>124.38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="21">
+        <v>5</v>
+      </c>
+      <c r="B98" s="21">
+        <v>0</v>
+      </c>
+      <c r="C98" s="21">
+        <v>65.89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="21">
+        <v>5</v>
+      </c>
+      <c r="B99" s="21">
+        <v>1</v>
+      </c>
+      <c r="C99" s="21">
+        <v>43.63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="21">
+        <v>5</v>
+      </c>
+      <c r="B100" s="21">
+        <v>2</v>
+      </c>
+      <c r="C100" s="21">
+        <v>34.57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="21">
+        <v>5</v>
+      </c>
+      <c r="B101" s="21">
+        <v>3</v>
+      </c>
+      <c r="C101" s="21">
+        <v>30.73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="21">
+        <v>5</v>
+      </c>
+      <c r="B102" s="21">
+        <v>4</v>
+      </c>
+      <c r="C102" s="21">
+        <v>82.79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="21">
+        <v>5</v>
+      </c>
+      <c r="B103" s="21">
+        <v>5</v>
+      </c>
+      <c r="C103" s="21">
+        <v>49.69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="21">
+        <v>5</v>
+      </c>
+      <c r="B104" s="21">
+        <v>6</v>
+      </c>
+      <c r="C104" s="21">
+        <v>66.239999999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="21">
+        <v>5</v>
+      </c>
+      <c r="B105" s="21">
+        <v>7</v>
+      </c>
+      <c r="C105" s="21">
+        <v>85.06</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="21">
+        <v>5</v>
+      </c>
+      <c r="B106" s="21">
+        <v>8</v>
+      </c>
+      <c r="C106" s="21">
+        <v>143.52000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="21">
+        <v>5</v>
+      </c>
+      <c r="B107" s="21">
+        <v>9</v>
+      </c>
+      <c r="C107" s="21">
+        <v>98.35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="21">
+        <v>5</v>
+      </c>
+      <c r="B108" s="21">
+        <v>10</v>
+      </c>
+      <c r="C108" s="21">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="21">
+        <v>5</v>
+      </c>
+      <c r="B109" s="21">
+        <v>11</v>
+      </c>
+      <c r="C109" s="21">
+        <v>73.44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="21">
+        <v>5</v>
+      </c>
+      <c r="B110" s="21">
+        <v>12</v>
+      </c>
+      <c r="C110" s="21">
+        <v>104.21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="21">
+        <v>5</v>
+      </c>
+      <c r="B111" s="21">
+        <v>13</v>
+      </c>
+      <c r="C111" s="21">
+        <v>103.96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="21">
+        <v>5</v>
+      </c>
+      <c r="B112" s="21">
+        <v>14</v>
+      </c>
+      <c r="C112" s="21">
+        <v>73.459999999999994</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="21">
+        <v>5</v>
+      </c>
+      <c r="B113" s="21">
+        <v>15</v>
+      </c>
+      <c r="C113" s="21">
+        <v>43.14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="21">
+        <v>5</v>
+      </c>
+      <c r="B114" s="21">
+        <v>16</v>
+      </c>
+      <c r="C114" s="21">
+        <v>41.45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="21">
+        <v>5</v>
+      </c>
+      <c r="B115" s="21">
+        <v>17</v>
+      </c>
+      <c r="C115" s="21">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="21">
+        <v>5</v>
+      </c>
+      <c r="B116" s="21">
+        <v>18</v>
+      </c>
+      <c r="C116" s="21">
+        <v>162.66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="21">
+        <v>5</v>
+      </c>
+      <c r="B117" s="21">
+        <v>19</v>
+      </c>
+      <c r="C117" s="21">
+        <v>163.03</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="21">
+        <v>5</v>
+      </c>
+      <c r="B118" s="21">
+        <v>20</v>
+      </c>
+      <c r="C118" s="21">
+        <v>163.55000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="21">
+        <v>5</v>
+      </c>
+      <c r="B119" s="21">
+        <v>21</v>
+      </c>
+      <c r="C119" s="21">
+        <v>162.91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="21">
+        <v>5</v>
+      </c>
+      <c r="B120" s="21">
+        <v>22</v>
+      </c>
+      <c r="C120" s="21">
+        <v>155.30000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="21">
+        <v>5</v>
+      </c>
+      <c r="B121" s="21">
+        <v>23</v>
+      </c>
+      <c r="C121" s="21">
+        <v>95.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6170DC-F118-41CF-A7CF-F45C5CAAC25C}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="34.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.53125" customWidth="1"/>
+    <col min="4" max="4" width="14.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="38">
+        <v>1</v>
+      </c>
+      <c r="C6" s="38">
+        <v>11</v>
+      </c>
+      <c r="D6" s="38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="38">
+        <v>13</v>
+      </c>
+      <c r="C7" s="38">
+        <v>32</v>
+      </c>
+      <c r="D7" s="38">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>